--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{525256F8-17F1-4FC7-9030-CE2D29AAD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289977BE-07AD-4D24-9DF7-B0D87A8F0A4A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CB42E390-6A30-4661-9E8F-040FAD790A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E8E2ED-4811-47D6-951A-BA017F651F20}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CB42E390-6A30-4661-9E8F-040FAD790A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E8E2ED-4811-47D6-951A-BA017F651F20}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{12B72A54-9E64-4FD8-BF15-8DF2F2888A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EB3E52-94B0-4DFB-9953-82E784818497}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{12B72A54-9E64-4FD8-BF15-8DF2F2888A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EB3E52-94B0-4DFB-9953-82E784818497}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E2F43EB-85F0-4C85-93A2-7503A6A37CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896A549A-74D7-4554-8869-C05976FA57D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E2F43EB-85F0-4C85-93A2-7503A6A37CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896A549A-74D7-4554-8869-C05976FA57D2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B1750232-81A5-4DDF-AB45-819912272F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894AEF9B-0E7C-4875-A478-69BD990E36F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B1750232-81A5-4DDF-AB45-819912272F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894AEF9B-0E7C-4875-A478-69BD990E36F1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3CF099A6-BF60-49FD-AEBB-EEDD0164C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447E8D9F-FED6-449B-9C94-AC5FE80D5ACC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/Sparkasse-Deposits-Andrej (2).xlsx
+++ b/Sparkasse-Deposits-Andrej (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3CF099A6-BF60-49FD-AEBB-EEDD0164C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447E8D9F-FED6-449B-9C94-AC5FE80D5ACC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E7F8D724-F808-46B8-B74B-C502926EA659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69DE589-7873-4729-BA0E-65D908ECEF14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AAC2EBE-971B-455C-A383-7F199869089D}"/>
   </bookViews>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
